--- a/biology/Zoologie/Catostomus/Catostomus.xlsx
+++ b/biology/Zoologie/Catostomus/Catostomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catostomus est un genre de poissons téléostéens de la famille des Catostomidae et de l'ordre des Cypriniformes. La plupart des membres du genre sont originaires d'Amérique du Nord, mais Catostomus catostomus se rencontre également en Russie.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèce non décrite</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'une des espèces de Catostomus, le Meunier de salish - population génétiquement distincte, résultant probablement de divergences évolutives acquises dans un refuge glaciaire lors des glaciations précédentes ou lors de la glaciation du Pléistocène dans le refuge de Chehalis. C'est une espèce proche du Meunier rouge, mais qui en 2002 n'avait pas encore de nom scientifique est considéré en voie de disparition au Canada[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'une des espèces de Catostomus, le Meunier de salish - population génétiquement distincte, résultant probablement de divergences évolutives acquises dans un refuge glaciaire lors des glaciations précédentes ou lors de la glaciation du Pléistocène dans le refuge de Chehalis. C'est une espèce proche du Meunier rouge, mais qui en 2002 n'avait pas encore de nom scientifique est considéré en voie de disparition au Canada.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (13 juillet 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (13 juillet 2015) :
 Catostomus ardens Jordan &amp; Gilbert, 1881
 Catostomus bernardini Girard, 1856
-Catostomus bondi Smith, Stewart &amp; Carpenter, 2013[3]
+Catostomus bondi Smith, Stewart &amp; Carpenter, 2013
 Catostomus cahita Siebert &amp; Minckley, 1986
 Catostomus catostomus (Forster, 1773)
 Catostomus clarkii Baird &amp; Girard, 1854
@@ -572,12 +588,84 @@
 Catostomus tsiltcoosensis Evermann &amp; Meek, 1898
 Catostomus utawana Mather, 1886
 Catostomus warnerensis Snyder, 1908
-Catostomus wigginsi Herre &amp; Brock, 1936
-Note
-Au moins une espèce non encore décrite :
-Catostomus sp. - Meunier de salish[4],[5] - peut-être une sous espèce de Catostomus catostomus.
-Sous-espèces
-Selon Wikipédia en anglais[6]:
+Catostomus wigginsi Herre &amp; Brock, 1936</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catostomus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catostomus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Au moins une espèce non encore décrite :
+Catostomus sp. - Meunier de salish, - peut-être une sous espèce de Catostomus catostomus.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Catostomus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Catostomus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Wikipédia en anglais:
 Catostomus catostomus
 Catostomus catostomus catostomus (J. R. Forster, 1773)
 Catostomus catostomus cristatus Cope, 1883 †
